--- a/Instructions/Budget.xlsx
+++ b/Instructions/Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeyang/Dropbox/My Stuff/Harvard/Projects/Attenuation/Attenuation/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminenke/Dropbox/Research/Projects/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9CEAF9-29C9-F84B-ADE9-1A15FD08D175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE32CED-834F-2D4A-9F2F-3CC9AA26BD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="25500" windowHeight="18140" xr2:uid="{70E35368-BA89-8F41-8F20-857100790B9C}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="25500" windowHeight="16080" xr2:uid="{70E35368-BA89-8F41-8F20-857100790B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Task pairings</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Cost per subject</t>
+  </si>
+  <si>
+    <t>Pilot subjects / pairing</t>
+  </si>
+  <si>
+    <t>Total subjects</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AFF49A-DEC3-AF40-8E60-1E6C9C5FFC9C}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -502,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -510,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -518,25 +524,42 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <f>(B2/60*B3+B5*B6)*4/3</f>
-        <v>11.333333333333334</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <f>(B2/60*B3+B5*B6)*4/3</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4">
-        <f>B11*B9*B8</f>
-        <v>42500</v>
+      <c r="B13" s="4">
+        <f>B12*(B9+B10)*B8</f>
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <f>B9*B8</f>
+        <v>5400</v>
       </c>
     </row>
   </sheetData>
